--- a/inst/extdata/acacia_aneura_branch_length_diameter.xlsx
+++ b/inst/extdata/acacia_aneura_branch_length_diameter.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t xml:space="preserve">species_name</t>
   </si>
   <si>
-    <t xml:space="preserve">sample_id</t>
+    <t xml:space="preserve">tree_id</t>
   </si>
   <si>
     <t xml:space="preserve">strain_number</t>
@@ -40,19 +40,10 @@
     <t xml:space="preserve">branch_length_cm</t>
   </si>
   <si>
-    <t xml:space="preserve">leaf_area_cm2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
+    <t xml:space="preserve">area_cm2</t>
   </si>
   <si>
     <t xml:space="preserve">acacia_aneura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double check</t>
   </si>
 </sst>
 </file>
@@ -67,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,22 +140,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -188,13 +179,10 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1043</v>
@@ -214,13 +202,10 @@
       <c r="G2" s="0" t="n">
         <v>9.64</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1044</v>
@@ -240,13 +225,10 @@
       <c r="G3" s="0" t="n">
         <v>10.3</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1045</v>
@@ -266,13 +248,10 @@
       <c r="G4" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1046</v>
@@ -292,13 +271,10 @@
       <c r="G5" s="0" t="n">
         <v>10.25</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1043</v>
@@ -318,13 +294,10 @@
       <c r="G6" s="0" t="n">
         <v>17.45</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1044</v>
@@ -344,13 +317,10 @@
       <c r="G7" s="0" t="n">
         <v>12.7</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1045</v>
@@ -370,13 +340,10 @@
       <c r="G8" s="0" t="n">
         <v>8.67</v>
       </c>
-      <c r="H8" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1046</v>
@@ -396,13 +363,10 @@
       <c r="G9" s="0" t="n">
         <v>5.28</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1043</v>
@@ -422,13 +386,10 @@
       <c r="G10" s="0" t="n">
         <v>9.57</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1044</v>
@@ -448,13 +409,10 @@
       <c r="G11" s="0" t="n">
         <v>10.34</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1045</v>
@@ -474,13 +432,10 @@
       <c r="G12" s="0" t="n">
         <v>11.06</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1046</v>
@@ -500,13 +455,10 @@
       <c r="G13" s="0" t="n">
         <v>9.2</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1043</v>
@@ -526,13 +478,10 @@
       <c r="G14" s="0" t="n">
         <v>8.41</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1044</v>
@@ -552,13 +501,10 @@
       <c r="G15" s="0" t="n">
         <v>11.68</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1045</v>
@@ -578,13 +524,10 @@
       <c r="G16" s="0" t="n">
         <v>4.55</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1046</v>
@@ -604,13 +547,10 @@
       <c r="G17" s="0" t="n">
         <v>10.87</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1043</v>
@@ -630,13 +570,10 @@
       <c r="G18" s="0" t="n">
         <v>6.59</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1044</v>
@@ -656,13 +593,10 @@
       <c r="G19" s="0" t="n">
         <v>14.5</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1045</v>
@@ -682,13 +616,10 @@
       <c r="G20" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1046</v>
@@ -708,13 +639,10 @@
       <c r="G21" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1043</v>
@@ -734,13 +662,10 @@
       <c r="G22" s="0" t="n">
         <v>6.101</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1044</v>
@@ -760,13 +685,10 @@
       <c r="G23" s="0" t="n">
         <v>8.6</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1045</v>
@@ -786,13 +708,10 @@
       <c r="G24" s="0" t="n">
         <v>5.14</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1046</v>
@@ -812,13 +731,10 @@
       <c r="G25" s="0" t="n">
         <v>9.26</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1043</v>
@@ -838,13 +754,10 @@
       <c r="G26" s="0" t="n">
         <v>7.71</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1044</v>
@@ -864,13 +777,10 @@
       <c r="G27" s="0" t="n">
         <v>15.87</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1045</v>
@@ -890,13 +800,10 @@
       <c r="G28" s="0" t="n">
         <v>5.25</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1046</v>
@@ -915,9 +822,6 @@
       </c>
       <c r="G29" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
